--- a/stm32l4/Doc/PinAssignments.xlsx
+++ b/stm32l4/Doc/PinAssignments.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22228"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23328"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\GIT-Repos\stm32x4-fw\Doc\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\GIT-Repos\stm32-fw\stm32l4\Doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53A1BCB2-27C4-4DF6-B9FD-A37BA9F38163}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8020F5F-D855-4057-887B-FF26C14F3D71}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="377" yWindow="377" windowWidth="26246" windowHeight="15026" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1277" yWindow="2443" windowWidth="31474" windowHeight="14383" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Pin Assignments" sheetId="1" r:id="rId1"/>
@@ -252,18 +252,12 @@
     <t>USR Button</t>
   </si>
   <si>
-    <t>20 pol ePaper Conector "Chinamann"</t>
-  </si>
-  <si>
     <t>NC</t>
   </si>
   <si>
     <t>BS1</t>
   </si>
   <si>
-    <t>Damit das funktioniert, muss auf der Adapterülatine der mit "GND BS2 BS1" beschriftete Jumper auf "BS2 BS1" umgesteckt werden!</t>
-  </si>
-  <si>
     <t>Busy</t>
   </si>
   <si>
@@ -448,6 +442,12 @@
   </si>
   <si>
     <t>Pin Header</t>
+  </si>
+  <si>
+    <t>20 pol ePaper Connector "Chinamann"</t>
+  </si>
+  <si>
+    <t>Damit das funktioniert, muss auf der Adapterplatine der mit "GND BS2 BS1" beschriftete Jumper auf "BS2 BS1" umgesteckt werden!</t>
   </si>
 </sst>
 </file>
@@ -860,7 +860,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B3:I41"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView topLeftCell="A19" workbookViewId="0">
       <selection activeCell="G33" sqref="G33:G34"/>
     </sheetView>
   </sheetViews>
@@ -890,7 +890,7 @@
         <v>30</v>
       </c>
       <c r="I3" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
     </row>
     <row r="4" spans="2:9" x14ac:dyDescent="0.4">
@@ -933,7 +933,7 @@
         <v>32</v>
       </c>
       <c r="H5" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="I5" t="s">
         <v>60</v>
@@ -969,7 +969,7 @@
         <v>4</v>
       </c>
       <c r="D7" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="F7">
         <f t="shared" si="1"/>
@@ -979,7 +979,7 @@
         <v>34</v>
       </c>
       <c r="I7" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
     </row>
     <row r="8" spans="2:9" x14ac:dyDescent="0.4">
@@ -991,7 +991,7 @@
         <v>5</v>
       </c>
       <c r="D8" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="F8">
         <f t="shared" si="1"/>
@@ -1001,10 +1001,10 @@
         <v>35</v>
       </c>
       <c r="H8" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="I8" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
     </row>
     <row r="9" spans="2:9" x14ac:dyDescent="0.4">
@@ -1025,10 +1025,10 @@
         <v>36</v>
       </c>
       <c r="H9" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="I9" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
     </row>
     <row r="10" spans="2:9" x14ac:dyDescent="0.4">
@@ -1051,10 +1051,10 @@
         <v>37</v>
       </c>
       <c r="H10" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="I10" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
     </row>
     <row r="11" spans="2:9" x14ac:dyDescent="0.4">
@@ -1077,7 +1077,7 @@
         <v>38</v>
       </c>
       <c r="I11" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
     </row>
     <row r="12" spans="2:9" x14ac:dyDescent="0.4">
@@ -1089,10 +1089,10 @@
         <v>9</v>
       </c>
       <c r="D12" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="E12" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="F12">
         <f t="shared" si="1"/>
@@ -1114,10 +1114,10 @@
         <v>10</v>
       </c>
       <c r="D13" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="E13" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="F13">
         <f t="shared" si="1"/>
@@ -1148,7 +1148,7 @@
         <v>41</v>
       </c>
       <c r="I14" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
     </row>
     <row r="15" spans="2:9" x14ac:dyDescent="0.4">
@@ -1169,7 +1169,7 @@
         <v>42</v>
       </c>
       <c r="I15" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
     </row>
     <row r="16" spans="2:9" x14ac:dyDescent="0.4">
@@ -1181,7 +1181,7 @@
         <v>13</v>
       </c>
       <c r="E16" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="F16">
         <f t="shared" si="1"/>
@@ -1191,7 +1191,7 @@
         <v>43</v>
       </c>
       <c r="H16" s="2" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="I16" s="2"/>
     </row>
@@ -1204,7 +1204,7 @@
         <v>14</v>
       </c>
       <c r="E17" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="F17">
         <f t="shared" si="1"/>
@@ -1224,10 +1224,10 @@
         <v>15</v>
       </c>
       <c r="D18" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="E18" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="F18">
         <v>48</v>
@@ -1252,10 +1252,10 @@
         <v>16</v>
       </c>
       <c r="D21" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="E21" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="F21">
         <v>49</v>
@@ -1264,7 +1264,7 @@
         <v>45</v>
       </c>
       <c r="H21" s="2" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="I21" s="2"/>
     </row>
@@ -1307,7 +1307,7 @@
         <v>47</v>
       </c>
       <c r="H23" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
     </row>
     <row r="24" spans="2:9" x14ac:dyDescent="0.4">
@@ -1319,10 +1319,10 @@
         <v>19</v>
       </c>
       <c r="D24" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="E24" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="F24">
         <f t="shared" si="1"/>
@@ -1332,7 +1332,7 @@
         <v>48</v>
       </c>
       <c r="H24" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
     </row>
     <row r="25" spans="2:9" x14ac:dyDescent="0.4">
@@ -1366,7 +1366,7 @@
         <v>21</v>
       </c>
       <c r="E26" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="F26">
         <f t="shared" si="1"/>
@@ -1376,7 +1376,7 @@
         <v>50</v>
       </c>
       <c r="H26" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
     </row>
     <row r="27" spans="2:9" x14ac:dyDescent="0.4">
@@ -1388,7 +1388,7 @@
         <v>22</v>
       </c>
       <c r="E27" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="F27">
         <f t="shared" si="1"/>
@@ -1410,7 +1410,7 @@
         <v>23</v>
       </c>
       <c r="D28" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="F28">
         <f t="shared" si="1"/>
@@ -1420,10 +1420,10 @@
         <v>52</v>
       </c>
       <c r="H28" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="I28" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
     </row>
     <row r="29" spans="2:9" x14ac:dyDescent="0.4">
@@ -1435,7 +1435,7 @@
         <v>24</v>
       </c>
       <c r="D29" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="F29">
         <f t="shared" si="1"/>
@@ -1457,7 +1457,7 @@
         <v>25</v>
       </c>
       <c r="E30" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="F30">
         <f t="shared" si="1"/>
@@ -1467,10 +1467,10 @@
         <v>54</v>
       </c>
       <c r="H30" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="I30" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
     </row>
     <row r="31" spans="2:9" x14ac:dyDescent="0.4">
@@ -1482,7 +1482,7 @@
         <v>26</v>
       </c>
       <c r="E31" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="F31">
         <f t="shared" si="1"/>
@@ -1492,10 +1492,10 @@
         <v>55</v>
       </c>
       <c r="H31" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="I31" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
     </row>
     <row r="32" spans="2:9" x14ac:dyDescent="0.4">
@@ -1507,7 +1507,7 @@
         <v>29</v>
       </c>
       <c r="E32" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="F32">
         <f t="shared" si="1"/>
@@ -1528,7 +1528,7 @@
         <v>27</v>
       </c>
       <c r="E33" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="F33">
         <f t="shared" si="1"/>
@@ -1538,7 +1538,7 @@
         <v>57</v>
       </c>
       <c r="H33" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
     </row>
     <row r="34" spans="2:9" x14ac:dyDescent="0.4">
@@ -1550,7 +1550,7 @@
         <v>28</v>
       </c>
       <c r="E34" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="F34">
         <f t="shared" si="1"/>
@@ -1560,7 +1560,7 @@
         <v>58</v>
       </c>
       <c r="H34" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
     </row>
     <row r="35" spans="2:9" x14ac:dyDescent="0.4">
@@ -1606,19 +1606,19 @@
     <row r="39" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B39" s="1"/>
       <c r="C39" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
     </row>
     <row r="40" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B40" s="2"/>
       <c r="C40" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
     </row>
     <row r="41" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B41" s="4"/>
       <c r="C41" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
     </row>
   </sheetData>
@@ -1631,8 +1631,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B3F0774D-4F12-4BF6-AE35-D873C56C88F7}">
   <dimension ref="B3:F36"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E34" sqref="E34"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
@@ -1643,7 +1643,7 @@
   <sheetData>
     <row r="3" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B3" t="s">
-        <v>72</v>
+        <v>136</v>
       </c>
     </row>
     <row r="5" spans="2:6" x14ac:dyDescent="0.4">
@@ -1651,7 +1651,7 @@
         <v>1</v>
       </c>
       <c r="C5" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="6" spans="2:6" x14ac:dyDescent="0.4">
@@ -1660,13 +1660,13 @@
         <v>2</v>
       </c>
       <c r="C6" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D6" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="F6" t="s">
-        <v>75</v>
+        <v>137</v>
       </c>
     </row>
     <row r="7" spans="2:6" x14ac:dyDescent="0.4">
@@ -1675,10 +1675,10 @@
         <v>3</v>
       </c>
       <c r="C7" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="D7" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
     </row>
     <row r="8" spans="2:6" x14ac:dyDescent="0.4">
@@ -1687,10 +1687,10 @@
         <v>4</v>
       </c>
       <c r="C8" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="D8" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
     </row>
     <row r="9" spans="2:6" x14ac:dyDescent="0.4">
@@ -1699,10 +1699,10 @@
         <v>5</v>
       </c>
       <c r="C9" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="D9" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
     <row r="10" spans="2:6" x14ac:dyDescent="0.4">
@@ -1711,10 +1711,10 @@
         <v>6</v>
       </c>
       <c r="C10" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="D10" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="11" spans="2:6" x14ac:dyDescent="0.4">
@@ -1723,10 +1723,10 @@
         <v>7</v>
       </c>
       <c r="C11" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="D11" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
     </row>
     <row r="12" spans="2:6" x14ac:dyDescent="0.4">
@@ -1735,10 +1735,10 @@
         <v>8</v>
       </c>
       <c r="C12" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="D12" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
     </row>
     <row r="13" spans="2:6" x14ac:dyDescent="0.4">
@@ -1747,7 +1747,7 @@
         <v>9</v>
       </c>
       <c r="C13" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="14" spans="2:6" x14ac:dyDescent="0.4">
@@ -1756,7 +1756,7 @@
         <v>10</v>
       </c>
       <c r="C14" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="15" spans="2:6" x14ac:dyDescent="0.4">
@@ -1765,7 +1765,7 @@
         <v>11</v>
       </c>
       <c r="C15" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="16" spans="2:6" x14ac:dyDescent="0.4">
@@ -1774,7 +1774,7 @@
         <v>12</v>
       </c>
       <c r="C16" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="17" spans="2:5" x14ac:dyDescent="0.4">
@@ -1783,7 +1783,7 @@
         <v>13</v>
       </c>
       <c r="C17" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="18" spans="2:5" x14ac:dyDescent="0.4">
@@ -1792,7 +1792,7 @@
         <v>14</v>
       </c>
       <c r="C18" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="19" spans="2:5" x14ac:dyDescent="0.4">
@@ -1801,7 +1801,7 @@
         <v>15</v>
       </c>
       <c r="C19" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
     </row>
     <row r="20" spans="2:5" x14ac:dyDescent="0.4">
@@ -1810,7 +1810,7 @@
         <v>16</v>
       </c>
       <c r="C20" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
     </row>
     <row r="21" spans="2:5" x14ac:dyDescent="0.4">
@@ -1819,7 +1819,7 @@
         <v>17</v>
       </c>
       <c r="C21" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="22" spans="2:5" x14ac:dyDescent="0.4">
@@ -1828,7 +1828,7 @@
         <v>18</v>
       </c>
       <c r="C22" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="23" spans="2:5" x14ac:dyDescent="0.4">
@@ -1837,7 +1837,7 @@
         <v>19</v>
       </c>
       <c r="C23" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="24" spans="2:5" x14ac:dyDescent="0.4">
@@ -1846,12 +1846,12 @@
         <v>20</v>
       </c>
       <c r="C24" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="26" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B26" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
     <row r="27" spans="2:5" x14ac:dyDescent="0.4">
@@ -1859,7 +1859,7 @@
         <v>1</v>
       </c>
       <c r="D27" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
     </row>
     <row r="28" spans="2:5" x14ac:dyDescent="0.4">
@@ -1867,13 +1867,13 @@
         <v>2</v>
       </c>
       <c r="C28" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="D28" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="E28" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
     </row>
     <row r="29" spans="2:5" x14ac:dyDescent="0.4">
@@ -1881,13 +1881,13 @@
         <v>3</v>
       </c>
       <c r="C29" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="D29" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="E29" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
     </row>
     <row r="30" spans="2:5" x14ac:dyDescent="0.4">
@@ -1895,13 +1895,13 @@
         <v>4</v>
       </c>
       <c r="C30" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="D30" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="E30" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
     </row>
     <row r="31" spans="2:5" x14ac:dyDescent="0.4">
@@ -1909,13 +1909,13 @@
         <v>5</v>
       </c>
       <c r="C31" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="D31" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="E31" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
     </row>
     <row r="32" spans="2:5" x14ac:dyDescent="0.4">
@@ -1923,7 +1923,7 @@
         <v>6</v>
       </c>
       <c r="D32" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="33" spans="2:4" x14ac:dyDescent="0.4">
@@ -1931,7 +1931,7 @@
         <v>7</v>
       </c>
       <c r="D33" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
     <row r="34" spans="2:4" x14ac:dyDescent="0.4">
@@ -1939,10 +1939,10 @@
         <v>8</v>
       </c>
       <c r="C34" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="D34" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
     </row>
     <row r="35" spans="2:4" x14ac:dyDescent="0.4">
@@ -1953,7 +1953,7 @@
         <v>18</v>
       </c>
       <c r="D35" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
     </row>
     <row r="36" spans="2:4" x14ac:dyDescent="0.4">
@@ -1961,10 +1961,10 @@
         <v>10</v>
       </c>
       <c r="C36" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="D36" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
     </row>
   </sheetData>
